--- a/jsreg.xlsx
+++ b/jsreg.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>JS-reg</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,6 +65,26 @@
   </si>
   <si>
     <t>TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vesta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘賜林</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -120,11 +140,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -421,13 +447,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -496,6 +522,26 @@
         <v>13</v>
       </c>
     </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/jsreg.xlsx
+++ b/jsreg.xlsx
@@ -115,6 +115,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -140,7 +141,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -151,6 +152,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -453,7 +457,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -535,6 +539,9 @@
       <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="F4" s="4">
+        <v>41194</v>
+      </c>
       <c r="G4" t="s">
         <v>17</v>
       </c>

--- a/jsreg.xlsx
+++ b/jsreg.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>JS-reg</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,6 +89,56 @@
   </si>
   <si>
     <t>JS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DCEC</t>
+  </si>
+  <si>
+    <t>10.15~20,10.22~31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祁德强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-26,27</t>
+  </si>
+  <si>
+    <t>SHOWA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SINPO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-29,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-20,23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DCEC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.5~9,11.12~16,11.19~22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘相刚</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -451,22 +501,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.125" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.5" bestFit="1" customWidth="1"/>
@@ -547,6 +597,94 @@
       </c>
       <c r="H4" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1">
+        <v>41212</v>
+      </c>
+      <c r="F5" s="1">
+        <v>41212</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>41240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>41246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1">
+        <v>41248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1">
+        <v>41235</v>
+      </c>
+      <c r="F9" s="1">
+        <v>41236</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/jsreg.xlsx
+++ b/jsreg.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>JS-reg</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,6 +139,30 @@
   </si>
   <si>
     <t>刘相刚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12-11,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013-1-8，9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nadfinlo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12-24~25,12-26~27</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -501,13 +525,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9:F9"/>
+      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -663,6 +687,12 @@
       <c r="E8" s="1">
         <v>41248</v>
       </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
@@ -685,6 +715,66 @@
       </c>
       <c r="H9" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1">
+        <v>41278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>41279</v>
+      </c>
+      <c r="F11" s="1">
+        <v>41282</v>
+      </c>
+      <c r="G11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" s="4">
+        <v>41284</v>
+      </c>
+      <c r="F12" s="1">
+        <v>41284</v>
+      </c>
+      <c r="G12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/jsreg.xlsx
+++ b/jsreg.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="90" windowWidth="18180" windowHeight="9900"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>JS-reg</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,6 +163,10 @@
   </si>
   <si>
     <t>12-24~25,12-26~27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013-1-17，21</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -525,13 +529,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -730,6 +734,15 @@
       <c r="E10" s="1">
         <v>41278</v>
       </c>
+      <c r="F10" s="1">
+        <v>41295</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
@@ -764,7 +777,7 @@
       <c r="D12">
         <v>2</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="1">
         <v>41284</v>
       </c>
       <c r="F12" s="1">
@@ -775,6 +788,29 @@
       </c>
       <c r="H12" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>41296</v>
+      </c>
+      <c r="F13" s="1">
+        <v>41297</v>
+      </c>
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
